--- a/forces.xlsx
+++ b/forces.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\Downloads\INPUT and OUTPUT 3M NaBOH4 323K 2000water\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\source\repos\Debugging-Li2SO4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC99B5FB-E3F6-450B-92C0-4CC3E567948A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1432B14-BE1B-4B99-9ED0-65019C5EBB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{874B0134-1390-4BF3-83C4-416E653BC7FA}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{874B0134-1390-4BF3-83C4-416E653BC7FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Li-Li</t>
   </si>
@@ -81,6 +82,30 @@
   </si>
   <si>
     <t>Ow-Ow</t>
+  </si>
+  <si>
+    <t>mass m</t>
+  </si>
+  <si>
+    <t>r m-Li</t>
+  </si>
+  <si>
+    <t>mass S</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>hal9000</t>
+  </si>
+  <si>
+    <t>DelftBlue</t>
+  </si>
+  <si>
+    <t>mass Os</t>
   </si>
 </sst>
 </file>
@@ -437,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33013097-3A06-447B-96E6-C6C751BD98FB}">
   <dimension ref="B4:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +671,185 @@
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CDAB35-1A88-4732-A8F7-3C43358ED72A}">
+  <dimension ref="B4:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+      <c r="F5">
+        <f>(96.0626-E5)/4</f>
+        <v>24.003150000000002</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F10" si="0">(96.0626-E6)/4</f>
+        <v>24.003150000000002</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>23.990650000000002</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>23.990650000000002</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>23.890650000000001</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.05</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>23.890650000000001</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forces.xlsx
+++ b/forces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\source\repos\Debugging-Li2SO4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1432B14-BE1B-4B99-9ED0-65019C5EBB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F2511E-64D8-4DFD-AA73-BEF019A3D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{874B0134-1390-4BF3-83C4-416E653BC7FA}"/>
+    <workbookView xWindow="4680" yWindow="1485" windowWidth="12060" windowHeight="10545" activeTab="1" xr2:uid="{874B0134-1390-4BF3-83C4-416E653BC7FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Li-Li</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>mass Os</t>
+  </si>
+  <si>
+    <t>r S-Os</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -679,7 +685,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CDAB35-1A88-4732-A8F7-3C43358ED72A}">
-  <dimension ref="B4:H10"/>
+  <dimension ref="B4:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -687,7 +693,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -701,13 +707,19 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -725,13 +737,16 @@
         <v>24.003150000000002</v>
       </c>
       <c r="G5">
+        <v>1.49</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -749,13 +764,16 @@
         <v>24.003150000000002</v>
       </c>
       <c r="G6">
+        <v>1.49</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -773,13 +791,16 @@
         <v>23.990650000000002</v>
       </c>
       <c r="G7">
+        <v>1.49</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -797,13 +818,16 @@
         <v>23.990650000000002</v>
       </c>
       <c r="G8">
+        <v>1.49</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -821,13 +845,16 @@
         <v>23.890650000000001</v>
       </c>
       <c r="G9">
+        <v>1.49</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
@@ -845,9 +872,12 @@
         <v>23.890650000000001</v>
       </c>
       <c r="G10">
+        <v>1.49</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -857,21 +887,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F55467E21B67B45A103D81F13D91C27" ma:contentTypeVersion="5" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="497d483694d8ce173e73306ed21102b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="70f6bd0b-068c-4d82-a58f-a0ed716713b3" xmlns:ns4="e0764678-775e-4b3a-9581-a9313f21c0ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8eee7468f92a1a094a484d92214eafc0" ns3:_="" ns4:_="">
     <xsd:import namespace="70f6bd0b-068c-4d82-a58f-a0ed716713b3"/>
@@ -1042,32 +1057,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C28FD1-FDAB-4FA6-AACF-841A9330F756}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="70f6bd0b-068c-4d82-a58f-a0ed716713b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34AC1221-5A6C-4F6B-98AA-6C97E1E179EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED14D200-017A-42DC-AFAC-3E80C18FB2E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1084,4 +1089,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34AC1221-5A6C-4F6B-98AA-6C97E1E179EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C28FD1-FDAB-4FA6-AACF-841A9330F756}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="70f6bd0b-068c-4d82-a58f-a0ed716713b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>